--- a/biology/Botanique/Rose_de_Schelfhout/Rose_de_Schelfhout.xlsx
+++ b/biology/Botanique/Rose_de_Schelfhout/Rose_de_Schelfhout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Rose de Schelfhout' est un cultivar de rose ancienne obtenu en 1840 par Louis Parmentier[1]. Elle est baptisée en hommage au peintre Andreas Schelfhout[2].
+'Rose de Schelfhout' est un cultivar de rose ancienne obtenu en 1840 par Louis Parmentier. Elle est baptisée en hommage au peintre Andreas Schelfhout.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de Rosa gallica présente en juin-juillet de belles fleurs très doubles rose pâle délicatement parfumées[3], mesurant environ 7 cm de diamètre. Leur aspect délicieusement bouillonné est fort prisé des amateurs de roses anciennes. 
-Son buisson érigé et très fourni peut s'élever à 120 cm - 150 cm. Le feuillage est vert clair. Ce rosier est très résistant aux maladies et supporte des hivers à -25°[4].
-On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen[2] et à la roseraie de Commer[5]. Elle est fort appréciée dans les pays du Nord et en Russie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de Rosa gallica présente en juin-juillet de belles fleurs très doubles rose pâle délicatement parfumées, mesurant environ 7 cm de diamètre. Leur aspect délicieusement bouillonné est fort prisé des amateurs de roses anciennes. 
+Son buisson érigé et très fourni peut s'élever à 120 cm - 150 cm. Le feuillage est vert clair. Ce rosier est très résistant aux maladies et supporte des hivers à -25°.
+On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen et à la roseraie de Commer. Elle est fort appréciée dans les pays du Nord et en Russie.
 </t>
         </is>
       </c>
